--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3960020.154194112</v>
+        <v>3955715.401955301</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368137</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>146.9311922907018</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>8.36204194066889</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>114.5149250787132</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>94.6987462156946</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>115.4586819710204</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>185.6961891397001</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>189.0955454020228</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -913,7 +913,7 @@
         <v>12.28773869504416</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5974454495113</v>
+        <v>184.0779776858887</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -983,10 +983,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>95.92094869536547</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041456</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>133.3106911031044</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>14.96483578850866</v>
       </c>
       <c r="X7" t="n">
-        <v>186.22473971975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>318.9989010714777</v>
       </c>
       <c r="G8" t="n">
-        <v>11.8302881234605</v>
+        <v>11.83028812346049</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832801</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734614</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.895202352076</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0678569565025</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>92.20722658978531</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4855929438821</v>
+        <v>47.84012920314122</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719214</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155179</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088543</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>192.675990284458</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>175.1220020134642</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1296,13 +1296,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>136.599638386309</v>
+        <v>46.81117731420849</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305866</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8715076418046</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340681971946</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>111.3213230702134</v>
       </c>
       <c r="U13" t="n">
-        <v>74.20064764874441</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>193.7763380130617</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1897,16 +1897,16 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>72.57619040703456</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
-        <v>168.3381167077338</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>84.07981473403045</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790577</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>179.4684961233927</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>50.52682476229707</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>81.89830436238746</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>5.640152769375217</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790577</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>111.6910841413357</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32.47207866589218</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>137.9792024346629</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>85.89092205733026</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161.9163864599159</v>
+        <v>590.2069027719637</v>
       </c>
       <c r="C2" t="n">
-        <v>161.9163864599159</v>
+        <v>400.7871177554788</v>
       </c>
       <c r="D2" t="n">
-        <v>161.9163864599159</v>
+        <v>400.7871177554788</v>
       </c>
       <c r="E2" t="n">
-        <v>161.9163864599159</v>
+        <v>211.3673327389939</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107125</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058984</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.874309407919</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020262</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201465</v>
+        <v>738.6222485201473</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201465</v>
+        <v>738.6222485201473</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201465</v>
+        <v>738.6222485201473</v>
       </c>
       <c r="U2" t="n">
-        <v>738.6222485201465</v>
+        <v>590.2069027719637</v>
       </c>
       <c r="V2" t="n">
-        <v>549.2024635036619</v>
+        <v>590.2069027719637</v>
       </c>
       <c r="W2" t="n">
-        <v>359.7826784871772</v>
+        <v>590.2069027719637</v>
       </c>
       <c r="X2" t="n">
-        <v>351.3361714764006</v>
+        <v>590.2069027719637</v>
       </c>
       <c r="Y2" t="n">
-        <v>161.9163864599159</v>
+        <v>590.2069027719637</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>581.8870116452113</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="C3" t="n">
-        <v>407.4339823640843</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="D3" t="n">
-        <v>407.4339823640843</v>
+        <v>458.313241129427</v>
       </c>
       <c r="E3" t="n">
-        <v>248.1965273586288</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F3" t="n">
-        <v>248.1965273586288</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G3" t="n">
-        <v>110.6573461810779</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772653</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017058</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652792</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652792</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652792</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652792</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652792</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652792</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="X3" t="n">
-        <v>750.1023486652792</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.1023486652792</v>
+        <v>722.9192922843281</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.6908704103906</v>
+        <v>750.10234866528</v>
       </c>
       <c r="C4" t="n">
-        <v>183.6908704103906</v>
+        <v>750.10234866528</v>
       </c>
       <c r="D4" t="n">
-        <v>183.6908704103906</v>
+        <v>633.477417381421</v>
       </c>
       <c r="E4" t="n">
-        <v>183.6908704103906</v>
+        <v>485.5643237990279</v>
       </c>
       <c r="F4" t="n">
-        <v>183.6908704103906</v>
+        <v>338.6743763011175</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594233</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>216.0634826394158</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>401.7138139340724</v>
+        <v>373.5399563830974</v>
       </c>
       <c r="N4" t="n">
-        <v>587.3641452287291</v>
+        <v>559.1902876777542</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652792</v>
+        <v>721.9284911143044</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652792</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652792</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652792</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652792</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T4" t="n">
-        <v>562.5304404433599</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U4" t="n">
-        <v>562.5304404433599</v>
+        <v>750.10234866528</v>
       </c>
       <c r="V4" t="n">
-        <v>373.1106554268753</v>
+        <v>750.10234866528</v>
       </c>
       <c r="W4" t="n">
-        <v>373.1106554268753</v>
+        <v>750.10234866528</v>
       </c>
       <c r="X4" t="n">
-        <v>373.1106554268753</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Y4" t="n">
-        <v>183.6908704103906</v>
+        <v>750.10234866528</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1299.860713063805</v>
+        <v>239.0239202773507</v>
       </c>
       <c r="C5" t="n">
-        <v>1108.855111647621</v>
+        <v>239.0239202773507</v>
       </c>
       <c r="D5" t="n">
-        <v>750.5894130408703</v>
+        <v>239.0239202773507</v>
       </c>
       <c r="E5" t="n">
-        <v>364.8011604426261</v>
+        <v>239.0239202773507</v>
       </c>
       <c r="F5" t="n">
-        <v>357.8556596934226</v>
+        <v>232.0784195281473</v>
       </c>
       <c r="G5" t="n">
-        <v>345.4438024257013</v>
+        <v>219.6665622604259</v>
       </c>
       <c r="H5" t="n">
         <v>33.72921106255854</v>
@@ -4603,16 +4603,16 @@
         <v>1686.460553127927</v>
       </c>
       <c r="V5" t="n">
-        <v>1686.460553127927</v>
+        <v>1355.397665784356</v>
       </c>
       <c r="W5" t="n">
-        <v>1686.460553127927</v>
+        <v>1002.629010514242</v>
       </c>
       <c r="X5" t="n">
-        <v>1686.460553127927</v>
+        <v>629.1632522531625</v>
       </c>
       <c r="Y5" t="n">
-        <v>1686.460553127927</v>
+        <v>239.0239202773507</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>503.6512079780518</v>
+        <v>613.2439521774281</v>
       </c>
       <c r="C6" t="n">
-        <v>329.1981786969249</v>
+        <v>438.7909228963011</v>
       </c>
       <c r="D6" t="n">
-        <v>180.2637690356736</v>
+        <v>289.8565132350499</v>
       </c>
       <c r="E6" t="n">
-        <v>180.2637690356736</v>
+        <v>130.6190582295944</v>
       </c>
       <c r="F6" t="n">
         <v>33.72921106255854</v>
@@ -4646,25 +4646,25 @@
         <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>59.04473788968937</v>
+        <v>67.9405380666762</v>
       </c>
       <c r="K6" t="n">
-        <v>180.4678301599682</v>
+        <v>451.1842149794078</v>
       </c>
       <c r="L6" t="n">
-        <v>390.0587034127988</v>
+        <v>660.7750882322384</v>
       </c>
       <c r="M6" t="n">
-        <v>716.7381048692351</v>
+        <v>924.7146197277257</v>
       </c>
       <c r="N6" t="n">
-        <v>1002.071975302568</v>
+        <v>1210.048490161058</v>
       </c>
       <c r="O6" t="n">
-        <v>1240.876927054026</v>
+        <v>1448.853441912517</v>
       </c>
       <c r="P6" t="n">
-        <v>1413.205888007736</v>
+        <v>1621.182402866226</v>
       </c>
       <c r="Q6" t="n">
         <v>1686.460553127927</v>
@@ -4673,25 +4673,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1543.309735648992</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T6" t="n">
-        <v>1408.652471908483</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U6" t="n">
-        <v>1408.652471908483</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="V6" t="n">
-        <v>1173.50036367674</v>
+        <v>1451.308444896184</v>
       </c>
       <c r="W6" t="n">
-        <v>919.2630069485385</v>
+        <v>1197.071088167983</v>
       </c>
       <c r="X6" t="n">
-        <v>711.4115067430057</v>
+        <v>989.2195879624501</v>
       </c>
       <c r="Y6" t="n">
-        <v>503.6512079780518</v>
+        <v>781.4592891974962</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.6653939904654</v>
+        <v>647.5850744831047</v>
       </c>
       <c r="C7" t="n">
-        <v>33.72921106255854</v>
+        <v>478.6488915551978</v>
       </c>
       <c r="D7" t="n">
-        <v>33.72921106255854</v>
+        <v>328.532252142862</v>
       </c>
       <c r="E7" t="n">
-        <v>33.72921106255854</v>
+        <v>180.6191585604689</v>
       </c>
       <c r="F7" t="n">
         <v>33.72921106255854</v>
@@ -4752,25 +4752,25 @@
         <v>1293.13166510086</v>
       </c>
       <c r="S7" t="n">
-        <v>1090.659418261162</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="T7" t="n">
-        <v>866.2482590365996</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="U7" t="n">
-        <v>866.2482590365996</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="V7" t="n">
-        <v>611.5637708307128</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="W7" t="n">
-        <v>611.5637708307128</v>
+        <v>1278.015669354892</v>
       </c>
       <c r="X7" t="n">
-        <v>423.4579731339956</v>
+        <v>1050.026118456874</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.6653939904654</v>
+        <v>829.2335393133444</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1143.236158062426</v>
+        <v>1491.54291284973</v>
       </c>
       <c r="C8" t="n">
-        <v>774.2736411220144</v>
+        <v>1122.580395909318</v>
       </c>
       <c r="D8" t="n">
-        <v>774.2736411220144</v>
+        <v>764.314697302568</v>
       </c>
       <c r="E8" t="n">
-        <v>774.2736411220144</v>
+        <v>378.5264447043238</v>
       </c>
       <c r="F8" t="n">
-        <v>363.2877363324069</v>
+        <v>56.3053325109119</v>
       </c>
       <c r="G8" t="n">
-        <v>351.3379503491134</v>
+        <v>44.35554652761848</v>
       </c>
       <c r="H8" t="n">
-        <v>44.35554652761834</v>
+        <v>44.35554652761848</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761834</v>
+        <v>44.35554652761848</v>
       </c>
       <c r="J8" t="n">
         <v>156.8927045872715</v>
       </c>
       <c r="K8" t="n">
-        <v>376.295250515901</v>
+        <v>376.2952505159014</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985294</v>
+        <v>685.3852714985305</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556945</v>
+        <v>1060.976912556947</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.25982741549</v>
+        <v>1447.259827415494</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975112</v>
+        <v>1798.680568975117</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.10904063109</v>
+        <v>2064.109040631096</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208129</v>
+        <v>2215.262022208135</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380917</v>
+        <v>2217.777326380924</v>
       </c>
       <c r="S8" t="n">
-        <v>2086.573660650148</v>
+        <v>2217.777326380924</v>
       </c>
       <c r="T8" t="n">
-        <v>1876.578506759162</v>
+        <v>2217.777326380924</v>
       </c>
       <c r="U8" t="n">
-        <v>1622.974610843503</v>
+        <v>2217.777326380924</v>
       </c>
       <c r="V8" t="n">
-        <v>1529.835998126548</v>
+        <v>2217.777326380924</v>
       </c>
       <c r="W8" t="n">
-        <v>1529.835998126548</v>
+        <v>1865.00867111081</v>
       </c>
       <c r="X8" t="n">
-        <v>1529.835998126548</v>
+        <v>1491.54291284973</v>
       </c>
       <c r="Y8" t="n">
-        <v>1529.835998126548</v>
+        <v>1491.54291284973</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>782.3644560323927</v>
+        <v>721.838361280023</v>
       </c>
       <c r="C9" t="n">
-        <v>607.9114267512657</v>
+        <v>547.385331998896</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9114267512657</v>
+        <v>398.4509223376448</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6739717458101</v>
+        <v>239.2134673321893</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1394137726951</v>
+        <v>92.67890935907425</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2852794859455</v>
+        <v>44.35554652761848</v>
       </c>
       <c r="H9" t="n">
-        <v>70.04102928676156</v>
+        <v>44.35554652761848</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761834</v>
+        <v>44.35554652761848</v>
       </c>
       <c r="J9" t="n">
-        <v>92.56405995424089</v>
+        <v>217.3941849412461</v>
       </c>
       <c r="K9" t="n">
-        <v>253.1149126643083</v>
+        <v>377.9450376513141</v>
       </c>
       <c r="L9" t="n">
-        <v>515.3178884939849</v>
+        <v>640.1480134809915</v>
       </c>
       <c r="M9" t="n">
-        <v>840.6532621440908</v>
+        <v>965.4833871310982</v>
       </c>
       <c r="N9" t="n">
-        <v>1189.007939984845</v>
+        <v>1313.838064971853</v>
       </c>
       <c r="O9" t="n">
-        <v>1485.464618399997</v>
+        <v>1610.294743387006</v>
       </c>
       <c r="P9" t="n">
-        <v>2019.342313620863</v>
+        <v>1913.591994996789</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380917</v>
+        <v>2217.777326380924</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380917</v>
+        <v>2217.777326380924</v>
       </c>
       <c r="S9" t="n">
-        <v>2079.218696472983</v>
+        <v>2217.777326380924</v>
       </c>
       <c r="T9" t="n">
-        <v>1884.59648406444</v>
+        <v>2023.155113972381</v>
       </c>
       <c r="U9" t="n">
-        <v>1656.496332322581</v>
+        <v>1795.054962230522</v>
       </c>
       <c r="V9" t="n">
-        <v>1421.344224090838</v>
+        <v>1559.902853998779</v>
       </c>
       <c r="W9" t="n">
-        <v>1167.106867362637</v>
+        <v>1305.665497270578</v>
       </c>
       <c r="X9" t="n">
-        <v>959.255367157104</v>
+        <v>1097.813997065045</v>
       </c>
       <c r="Y9" t="n">
-        <v>782.3644560323927</v>
+        <v>890.0536983000911</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>499.1842557513618</v>
+        <v>558.6054799393537</v>
       </c>
       <c r="C10" t="n">
-        <v>330.2480728234549</v>
+        <v>389.6692970114468</v>
       </c>
       <c r="D10" t="n">
-        <v>330.2480728234549</v>
+        <v>239.5526575991111</v>
       </c>
       <c r="E10" t="n">
-        <v>182.3349792410618</v>
+        <v>91.63956401671797</v>
       </c>
       <c r="F10" t="n">
-        <v>44.35554652761834</v>
+        <v>44.35554652761848</v>
       </c>
       <c r="G10" t="n">
-        <v>44.35554652761834</v>
+        <v>44.35554652761848</v>
       </c>
       <c r="H10" t="n">
-        <v>44.35554652761834</v>
+        <v>44.35554652761848</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761834</v>
+        <v>44.35554652761848</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262692035</v>
+        <v>60.9525426269207</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274031</v>
+        <v>218.0633423274038</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918438</v>
+        <v>474.6375091918449</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921713</v>
+        <v>755.5481168921729</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.213914629318</v>
+        <v>1035.21391462932</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546131</v>
+        <v>1277.514248546133</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.32336065924</v>
+        <v>1461.323360659243</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155968</v>
+        <v>1505.148182155971</v>
       </c>
       <c r="R10" t="n">
-        <v>1396.807701620022</v>
+        <v>1505.148182155971</v>
       </c>
       <c r="S10" t="n">
-        <v>1197.947592890926</v>
+        <v>1505.148182155971</v>
       </c>
       <c r="T10" t="n">
-        <v>1197.947592890926</v>
+        <v>1505.148182155971</v>
       </c>
       <c r="U10" t="n">
-        <v>908.8222714796188</v>
+        <v>1505.148182155971</v>
       </c>
       <c r="V10" t="n">
-        <v>908.8222714796188</v>
+        <v>1250.463693950084</v>
       </c>
       <c r="W10" t="n">
-        <v>908.8222714796188</v>
+        <v>961.0465239131236</v>
       </c>
       <c r="X10" t="n">
-        <v>680.8327205816015</v>
+        <v>961.0465239131236</v>
       </c>
       <c r="Y10" t="n">
-        <v>680.8327205816015</v>
+        <v>740.2539447695934</v>
       </c>
     </row>
     <row r="11">
@@ -5026,28 +5026,28 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5056,25 +5056,25 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>175.8744207939072</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.9786782557277</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278208</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U13" t="n">
-        <v>1902.510931370362</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V13" t="n">
-        <v>1647.826443164475</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W13" t="n">
-        <v>1358.409273127515</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X13" t="n">
-        <v>1130.419722229497</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y13" t="n">
-        <v>909.6271430859674</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="14">
@@ -5275,10 +5275,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
@@ -5363,19 +5363,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5478,10 +5478,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>948.5505208511905</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>948.5505208511905</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5545,13 +5545,13 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1026.887310050512</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1654.485273605118</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811333</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532264</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5712,13 +5712,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5758,13 +5758,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5831,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>781.3544215660705</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2209.878878107679</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1990.277413130621</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1701.202186474818</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1701.202186474818</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1411.785016437858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1183.79546553984</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>963.0028863963103</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,22 +6001,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>214.9229991561138</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>866.4638174991043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2294.988274040713</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2075.386809063654</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1786.311582407852</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1786.311582407852</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1496.894412370891</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1268.904861472874</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1048.112282329344</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6208,7 +6208,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6223,19 +6223,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>781.3544215660705</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>612.4182386381636</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>963.0028863963103</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>963.0028863963103</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,13 +6451,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6466,7 +6466,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6478,34 +6478,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,22 +6712,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2297.191819870655</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2077.590354893597</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1788.515128237795</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1788.515128237795</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1271.108407302817</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1050.315828159287</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6916,73 +6916,73 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349511</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1550.665004989558</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>948.5505208511906</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2191.365421478097</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1902.290194822295</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1647.605706616408</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1358.188536579448</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1130.19898568143</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1130.19898568143</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,13 +7162,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7177,7 +7177,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7189,34 +7189,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.7540666811333</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532264</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1642.612280691864</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1353.195110654903</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>1353.195110654903</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>1132.402531511373</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7408,16 +7408,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.777212765616</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304621</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369643</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261132</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,49 +7636,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466574</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>870.3164745246296</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>701.3802915967227</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>551.263652184387</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
-        <v>98.2936870616125</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>46.56605103777633</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>8.985656744431139</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>63.37360602116064</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>85.55322963884203</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.2587840751606</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688307</v>
+        <v>30.32522655688285</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>106.0841272570749</v>
       </c>
       <c r="U13" t="n">
-        <v>211.9838267404998</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>31.93331737597549</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>146.0084629450602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
-        <v>12.68816929391076</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>96.94647126761414</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>46.24115926564448</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.0578285897977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>99.12798163925713</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>211.765297557913</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>140.4465591824923</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>147.3599015160451</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>79.42624789262538</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>60.54304058923891</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>639977.9579446111</v>
+        <v>639977.9579446112</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>618778.7169977755</v>
+        <v>618778.7169977756</v>
       </c>
     </row>
     <row r="6">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>618778.7169977755</v>
+        <v>618778.7169977756</v>
       </c>
     </row>
     <row r="16">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642836</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642839</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900058</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="H2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="I2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="I2" t="n">
-        <v>807146.5996900061</v>
-      </c>
       <c r="J2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.599690006</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="L2" t="n">
         <v>807146.599690006</v>
@@ -26349,13 +26349,13 @@
         <v>807146.599690006</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900058</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900066</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>259123.805677833</v>
+        <v>259123.8056778329</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296909</v>
+        <v>138712.7919296929</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745745</v>
+        <v>589678.7921745729</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153569</v>
+        <v>60247.1595915357</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484309</v>
+        <v>33617.87336484356</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.8510167273</v>
+        <v>154073.8510167268</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.505352842521591e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278169.1766632065</v>
+        <v>278169.1766632064</v>
       </c>
       <c r="C4" t="n">
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296187</v>
+        <v>170385.5244296182</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26438,7 +26438,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685499</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
@@ -26447,10 +26447,10 @@
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685499</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685498</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969312</v>
+        <v>86168.04029969327</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-105470.1097313821</v>
+        <v>-105470.1097313818</v>
       </c>
       <c r="C6" t="n">
-        <v>277052.6664917002</v>
+        <v>277052.6664917012</v>
       </c>
       <c r="D6" t="n">
-        <v>425775.4132052806</v>
+        <v>425775.413205279</v>
       </c>
       <c r="E6" t="n">
-        <v>102128.5256146692</v>
+        <v>101781.1463603141</v>
       </c>
       <c r="F6" t="n">
-        <v>691807.3177892435</v>
+        <v>691459.938534887</v>
       </c>
       <c r="G6" t="n">
-        <v>691807.3177892441</v>
+        <v>691459.9385348872</v>
       </c>
       <c r="H6" t="n">
-        <v>691807.3177892439</v>
+        <v>691459.938534887</v>
       </c>
       <c r="I6" t="n">
-        <v>691807.317789244</v>
+        <v>691459.9385348868</v>
       </c>
       <c r="J6" t="n">
-        <v>642742.3730606992</v>
+        <v>642394.9938063424</v>
       </c>
       <c r="K6" t="n">
-        <v>631560.1581977083</v>
+        <v>631212.7789433515</v>
       </c>
       <c r="L6" t="n">
-        <v>658189.4444244008</v>
+        <v>657842.0651700434</v>
       </c>
       <c r="M6" t="n">
-        <v>537733.4667725166</v>
+        <v>537386.0875181602</v>
       </c>
       <c r="N6" t="n">
-        <v>691807.3177892437</v>
+        <v>691459.938534887</v>
       </c>
       <c r="O6" t="n">
-        <v>691807.317789244</v>
+        <v>691459.9385348875</v>
       </c>
       <c r="P6" t="n">
-        <v>691807.3177892439</v>
+        <v>691459.938534887</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790455</v>
+        <v>863.7717861790471</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952292</v>
+        <v>554.444331595231</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26810,28 +26810,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26940,10 +26940,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-5.631691053151988e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.631691053151988e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>201.5110155847055</v>
+        <v>201.5110155847054</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814355</v>
+        <v>113.7908296814371</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626282</v>
+        <v>504.2037141626269</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>-2.273736754432321e-13</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>234.089551115662</v>
+        <v>234.0895511156618</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132473</v>
+        <v>132.8291933132492</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044192</v>
+        <v>618.2639565044176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>234.089551115662</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132473</v>
+        <v>132.8291933132492</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044192</v>
+        <v>618.2639565044176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>234.089551115662</v>
+        <v>234.0895511156618</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132473</v>
+        <v>132.8291933132492</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044192</v>
+        <v>618.2639565044176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046875</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>104.2380682743285</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038151</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510932</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>361.3690587378001</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897338</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>58.19357390960249</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.143011135045114</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550658</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714239</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>33.15679104719192</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553086</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845815</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27590,13 +27590,13 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>38.02348435039997</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750819</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577498</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>176.1773463689848</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>124.5194677636226</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885167</v>
+        <v>94.24014755885166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27703,10 +27703,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>49.14826369801841</v>
       </c>
       <c r="G6" t="n">
         <v>135.7303505775365</v>
@@ -27715,7 +27715,7 @@
         <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833735</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,10 +27745,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>60.35184420472376</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
         <v>225.8352527003384</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.6385546828073</v>
@@ -27824,22 +27824,22 @@
         <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
         <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>271.5581625480824</v>
       </c>
       <c r="X7" t="n">
-        <v>39.48491566928712</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>87.87714467023375</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>303.9125797832801</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787262</v>
+        <v>76.60428439787236</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.8916290734613</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.895202352076</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
-        <v>235.5450318803496</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>87.64546374074091</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.2918076971921</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.42862793155167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.1730436088542</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>30.56069376384013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>8.821409636622263</v>
+        <v>98.60987070872275</v>
       </c>
       <c r="G10" t="n">
         <v>166.4333581046933</v>
@@ -28031,7 +28031,7 @@
         <v>148.3785035421427</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685651</v>
+        <v>108.608555768565</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>107.2570757305864</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.8715076418045</v>
       </c>
       <c r="T10" t="n">
         <v>221.290298616738</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-1.172973401475805e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29997,13 +29997,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-5.631691053151984e-14</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-5.631691053151988e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244294</v>
@@ -31077,10 +31077,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31123,7 +31123,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
         <v>40.6178210959085</v>
@@ -31132,7 +31132,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
@@ -31141,7 +31141,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
         <v>280.6872536292673</v>
@@ -31150,19 +31150,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,7 +31284,7 @@
         <v>30.87735666625586</v>
       </c>
       <c r="I5" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115543</v>
       </c>
       <c r="J5" t="n">
         <v>255.8942561066896</v>
@@ -31363,7 +31363,7 @@
         <v>15.57979307743149</v>
       </c>
       <c r="I6" t="n">
-        <v>55.54104253307773</v>
+        <v>55.54104253307774</v>
       </c>
       <c r="J6" t="n">
         <v>152.4088658859908</v>
@@ -31396,7 +31396,7 @@
         <v>29.96386179969223</v>
       </c>
       <c r="T6" t="n">
-        <v>6.502193386993428</v>
+        <v>6.502193386993429</v>
       </c>
       <c r="U6" t="n">
         <v>0.1061293806364543</v>
@@ -31469,13 +31469,13 @@
         <v>113.2471244311391</v>
       </c>
       <c r="R7" t="n">
-        <v>60.80993132519963</v>
+        <v>60.80993132519964</v>
       </c>
       <c r="S7" t="n">
-        <v>23.56907366567078</v>
+        <v>23.56907366567079</v>
       </c>
       <c r="T7" t="n">
-        <v>5.778541795965189</v>
+        <v>5.77854179596519</v>
       </c>
       <c r="U7" t="n">
         <v>0.07376861867189614</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674552</v>
+        <v>3.472449391674559</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248702</v>
+        <v>35.56222233248708</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8716051725333</v>
+        <v>133.8716051725335</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566383</v>
+        <v>294.7198015566389</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062222</v>
+        <v>441.708584306223</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766824</v>
+        <v>547.9785573766834</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458747</v>
+        <v>609.7317292458758</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799701</v>
+        <v>619.5978260799712</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415062</v>
+        <v>585.0686574415073</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845406</v>
+        <v>499.3425630845415</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451956</v>
+        <v>374.9854692451963</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997768</v>
+        <v>218.1262490997772</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278394</v>
+        <v>79.12844051278408</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205536</v>
+        <v>15.20064721205539</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339641</v>
+        <v>0.2777959513339646</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328513</v>
+        <v>1.857924219328517</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930433</v>
+        <v>17.94363653930436</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986329</v>
+        <v>63.9680049198634</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743662</v>
+        <v>175.5330947743666</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693766</v>
+        <v>300.0140174693772</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169213</v>
+        <v>403.405870516922</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675798</v>
+        <v>470.7556234675806</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436908</v>
+        <v>483.2151240436917</v>
       </c>
       <c r="O9" t="n">
-        <v>442.04743476278</v>
+        <v>442.0474347627808</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873895</v>
+        <v>354.7820379873902</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1623968391976</v>
+        <v>237.162396839198</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070809</v>
+        <v>115.3542774070811</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498354</v>
+        <v>34.51012749498361</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363609</v>
+        <v>7.488738410363623</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347706</v>
+        <v>0.1222318565347709</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765492</v>
+        <v>1.557621253765495</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529684</v>
+        <v>13.84866896529686</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869317</v>
+        <v>46.84191915869325</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1238226412203</v>
+        <v>110.1238226412205</v>
       </c>
       <c r="K10" t="n">
-        <v>180.967269301118</v>
+        <v>180.9672693011183</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552805</v>
+        <v>231.5757998552809</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243488</v>
+        <v>244.1642116243493</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057686</v>
+        <v>238.358532405769</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231443</v>
+        <v>220.1626841231447</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463281</v>
+        <v>188.3872105463285</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4295397130359</v>
+        <v>130.4295397130361</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658291</v>
+        <v>70.03631564658305</v>
       </c>
       <c r="S10" t="n">
-        <v>27.1450903951677</v>
+        <v>27.14509039516775</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543463</v>
+        <v>6.655290811543475</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629965</v>
+        <v>0.08496115929629981</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>218.9428233593773</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32083,22 +32083,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>302.5540177178164</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>349.7190218511039</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32551,7 +32551,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32560,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>567.5882829286713</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>249.1672590991333</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>167.1165249313368</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>491.1355220041058</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34789,16 +34789,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062398</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>110.4529028080732</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>28.45844197068246</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.57123921932407</v>
+        <v>34.55689596375521</v>
       </c>
       <c r="K6" t="n">
-        <v>122.6495881517968</v>
+        <v>387.1148251643754</v>
       </c>
       <c r="L6" t="n">
         <v>211.707952780637</v>
       </c>
       <c r="M6" t="n">
-        <v>329.9791933903397</v>
+        <v>266.605587369179</v>
       </c>
       <c r="N6" t="n">
-        <v>288.2160307407401</v>
+        <v>288.2160307407402</v>
       </c>
       <c r="O6" t="n">
-        <v>241.2171229812711</v>
+        <v>241.2171229812712</v>
       </c>
       <c r="P6" t="n">
         <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.0148132527186</v>
+        <v>65.9375255168695</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.673897029952</v>
+        <v>113.6738970299526</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612416</v>
+        <v>221.6187332612424</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066951</v>
+        <v>312.2121424066962</v>
       </c>
       <c r="M8" t="n">
-        <v>379.385496018602</v>
+        <v>379.3854960186031</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833792</v>
+        <v>390.1847624833803</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198194</v>
+        <v>354.9704460198205</v>
       </c>
       <c r="P8" t="n">
-        <v>268.109567329271</v>
+        <v>268.109567329272</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707461</v>
+        <v>152.6797793707468</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285644676</v>
+        <v>2.540711285645074</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.69546810769955</v>
+        <v>174.7865034481087</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1725784950176</v>
+        <v>162.1725784950182</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370471</v>
+        <v>264.8514907370478</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455614</v>
+        <v>328.6215895455623</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603575</v>
+        <v>351.8734119603583</v>
       </c>
       <c r="O9" t="n">
-        <v>299.4511903183356</v>
+        <v>299.4511903183364</v>
       </c>
       <c r="P9" t="n">
-        <v>539.2703992129964</v>
+        <v>306.360860211902</v>
       </c>
       <c r="Q9" t="n">
-        <v>200.4394068283366</v>
+        <v>307.2579104890256</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454748</v>
+        <v>16.7646425245477</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752351</v>
+        <v>158.6977774752355</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155966</v>
+        <v>259.165825115597</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861894</v>
+        <v>283.7480885861899</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849971</v>
+        <v>282.4907047849975</v>
       </c>
       <c r="O10" t="n">
-        <v>244.747812037184</v>
+        <v>244.7478120371844</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112216</v>
+        <v>185.665769811222</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134148</v>
+        <v>44.26749646134174</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>81.10138438501833</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>171.2123056344831</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>207.1227774066595</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36208,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>425.454249006653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>122.3296324324666</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>349.0014880820875</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3955715.401955301</v>
+        <v>3957475.932258086</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.52558716632</v>
+        <v>50.20964914699377</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
-        <v>146.9311922907018</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>114.5149250787132</v>
+        <v>65.7361133232064</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>115.4586819710204</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>120.0319938887136</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.28773869504416</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H5" t="n">
-        <v>184.0779776858887</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>69.03351077347111</v>
       </c>
     </row>
     <row r="6">
@@ -986,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>95.92094869536547</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>32.96077856702728</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>153.2810793696898</v>
       </c>
       <c r="W7" t="n">
-        <v>14.96483578850866</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>318.9989010714777</v>
+        <v>268.9991901478172</v>
       </c>
       <c r="G8" t="n">
-        <v>11.83028812346049</v>
+        <v>11.8302881234605</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1226,7 +1226,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>47.84012920314122</v>
+        <v>47.84012920313283</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>46.81117731420849</v>
+        <v>46.81117731420483</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1536,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>127.6210071331219</v>
       </c>
       <c r="T13" t="n">
-        <v>111.3213230702134</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>1.79977260571659</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>133.3722917337063</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>59.96838802184509</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2721,13 +2721,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>170.9457618790577</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>212.4287627768742</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3082,7 +3082,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518788</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3477,13 +3477,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3514,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>170.9457618790577</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3793,7 +3793,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>137.9792024346629</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3988,10 +3988,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G44" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>31.26260713376613</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>590.2069027719637</v>
+        <v>199.4030692042954</v>
       </c>
       <c r="C2" t="n">
-        <v>400.7871177554788</v>
+        <v>199.4030692042954</v>
       </c>
       <c r="D2" t="n">
-        <v>400.7871177554788</v>
+        <v>199.4030692042954</v>
       </c>
       <c r="E2" t="n">
-        <v>211.3673327389939</v>
+        <v>199.4030692042954</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897905</v>
+        <v>192.457568455092</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058984</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.874309407919</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644761</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123834</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201473</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201473</v>
+        <v>578.2426392372649</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201473</v>
+        <v>388.8228542207802</v>
       </c>
       <c r="U2" t="n">
-        <v>590.2069027719637</v>
+        <v>199.4030692042954</v>
       </c>
       <c r="V2" t="n">
-        <v>590.2069027719637</v>
+        <v>199.4030692042954</v>
       </c>
       <c r="W2" t="n">
-        <v>590.2069027719637</v>
+        <v>199.4030692042954</v>
       </c>
       <c r="X2" t="n">
-        <v>590.2069027719637</v>
+        <v>199.4030692042954</v>
       </c>
       <c r="Y2" t="n">
-        <v>590.2069027719637</v>
+        <v>199.4030692042954</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>722.9192922843281</v>
+        <v>722.9192922843276</v>
       </c>
       <c r="C3" t="n">
-        <v>607.2476507906783</v>
+        <v>656.5191778164424</v>
       </c>
       <c r="D3" t="n">
-        <v>458.313241129427</v>
+        <v>507.5847681551912</v>
       </c>
       <c r="E3" t="n">
-        <v>299.0757861239715</v>
+        <v>348.3473131497357</v>
       </c>
       <c r="F3" t="n">
-        <v>152.5412281508565</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024242</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772653</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140248</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843281</v>
+        <v>722.9192922843276</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843281</v>
+        <v>722.9192922843276</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843281</v>
+        <v>722.9192922843276</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843281</v>
+        <v>722.9192922843276</v>
       </c>
       <c r="V3" t="n">
-        <v>722.9192922843281</v>
+        <v>722.9192922843276</v>
       </c>
       <c r="W3" t="n">
-        <v>722.9192922843281</v>
+        <v>722.9192922843276</v>
       </c>
       <c r="X3" t="n">
-        <v>722.9192922843281</v>
+        <v>722.9192922843276</v>
       </c>
       <c r="Y3" t="n">
-        <v>722.9192922843281</v>
+        <v>722.9192922843276</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="C4" t="n">
-        <v>750.10234866528</v>
+        <v>581.1661657373727</v>
       </c>
       <c r="D4" t="n">
-        <v>633.477417381421</v>
+        <v>431.0495263250369</v>
       </c>
       <c r="E4" t="n">
-        <v>485.5643237990279</v>
+        <v>283.1364327426438</v>
       </c>
       <c r="F4" t="n">
-        <v>338.6743763011175</v>
+        <v>136.2464852447335</v>
       </c>
       <c r="G4" t="n">
-        <v>169.9855528640325</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
         <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830974</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777542</v>
+        <v>559.190287677754</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143044</v>
+        <v>721.9284911143042</v>
       </c>
       <c r="P4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="V4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="W4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="X4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="Y4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652796</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>239.0239202773507</v>
+        <v>1230.129894100703</v>
       </c>
       <c r="C5" t="n">
-        <v>239.0239202773507</v>
+        <v>861.1673771602915</v>
       </c>
       <c r="D5" t="n">
-        <v>239.0239202773507</v>
+        <v>861.1673771602915</v>
       </c>
       <c r="E5" t="n">
-        <v>239.0239202773507</v>
+        <v>861.1673771602915</v>
       </c>
       <c r="F5" t="n">
-        <v>232.0784195281473</v>
+        <v>450.1814723706839</v>
       </c>
       <c r="G5" t="n">
-        <v>219.6665622604259</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H5" t="n">
         <v>33.72921106255854</v>
@@ -4603,16 +4603,16 @@
         <v>1686.460553127927</v>
       </c>
       <c r="V5" t="n">
-        <v>1355.397665784356</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="W5" t="n">
-        <v>1002.629010514242</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="X5" t="n">
-        <v>629.1632522531625</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="Y5" t="n">
-        <v>239.0239202773507</v>
+        <v>1616.729734164825</v>
       </c>
     </row>
     <row r="6">
@@ -4622,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>613.2439521774281</v>
+        <v>834.1875931813598</v>
       </c>
       <c r="C6" t="n">
-        <v>438.7909228963011</v>
+        <v>659.7345639002328</v>
       </c>
       <c r="D6" t="n">
-        <v>289.8565132350499</v>
+        <v>510.8001542389815</v>
       </c>
       <c r="E6" t="n">
-        <v>130.6190582295944</v>
+        <v>351.562699233526</v>
       </c>
       <c r="F6" t="n">
-        <v>33.72921106255854</v>
+        <v>205.028141260411</v>
       </c>
       <c r="G6" t="n">
-        <v>33.72921106255854</v>
+        <v>67.92677704067707</v>
       </c>
       <c r="H6" t="n">
-        <v>33.72921106255854</v>
+        <v>67.92677704067707</v>
       </c>
       <c r="I6" t="n">
         <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>67.9405380666762</v>
+        <v>183.8748628766941</v>
       </c>
       <c r="K6" t="n">
-        <v>451.1842149794078</v>
+        <v>305.2979551469729</v>
       </c>
       <c r="L6" t="n">
         <v>660.7750882322384</v>
@@ -4673,25 +4673,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1686.460553127927</v>
+        <v>1653.166837403657</v>
       </c>
       <c r="T6" t="n">
-        <v>1686.460553127927</v>
+        <v>1653.166837403657</v>
       </c>
       <c r="U6" t="n">
-        <v>1686.460553127927</v>
+        <v>1653.166837403657</v>
       </c>
       <c r="V6" t="n">
-        <v>1451.308444896184</v>
+        <v>1418.014729171914</v>
       </c>
       <c r="W6" t="n">
-        <v>1197.071088167983</v>
+        <v>1418.014729171914</v>
       </c>
       <c r="X6" t="n">
-        <v>989.2195879624501</v>
+        <v>1210.163228966382</v>
       </c>
       <c r="Y6" t="n">
-        <v>781.4592891974962</v>
+        <v>1002.402930201428</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>647.5850744831047</v>
+        <v>331.7589440572874</v>
       </c>
       <c r="C7" t="n">
-        <v>478.6488915551978</v>
+        <v>331.7589440572874</v>
       </c>
       <c r="D7" t="n">
-        <v>328.532252142862</v>
+        <v>181.6423046449517</v>
       </c>
       <c r="E7" t="n">
-        <v>180.6191585604689</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="F7" t="n">
         <v>33.72921106255854</v>
@@ -4758,19 +4758,19 @@
         <v>1293.13166510086</v>
       </c>
       <c r="U7" t="n">
-        <v>1293.13166510086</v>
+        <v>1003.995038092962</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.13166510086</v>
+        <v>849.1656649922654</v>
       </c>
       <c r="W7" t="n">
-        <v>1278.015669354892</v>
+        <v>559.7484949553047</v>
       </c>
       <c r="X7" t="n">
-        <v>1050.026118456874</v>
+        <v>331.7589440572874</v>
       </c>
       <c r="Y7" t="n">
-        <v>829.2335393133444</v>
+        <v>331.7589440572874</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.54291284973</v>
+        <v>1441.038154340982</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.580395909318</v>
+        <v>1072.07563740057</v>
       </c>
       <c r="D8" t="n">
-        <v>764.314697302568</v>
+        <v>713.8099387938198</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5264447043238</v>
+        <v>328.0216861955756</v>
       </c>
       <c r="F8" t="n">
-        <v>56.3053325109119</v>
+        <v>56.30533251091174</v>
       </c>
       <c r="G8" t="n">
-        <v>44.35554652761848</v>
+        <v>44.35554652761831</v>
       </c>
       <c r="H8" t="n">
-        <v>44.35554652761848</v>
+        <v>44.35554652761831</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761848</v>
+        <v>44.35554652761831</v>
       </c>
       <c r="J8" t="n">
         <v>156.8927045872715</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505159014</v>
+        <v>376.2952505159005</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985305</v>
+        <v>685.3852714985285</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556947</v>
+        <v>1060.976912556944</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415494</v>
+        <v>1447.259827415489</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975117</v>
+        <v>1798.68056897511</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.109040631096</v>
+        <v>2064.109040631089</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208135</v>
+        <v>2215.262022208127</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380924</v>
+        <v>2217.777326380915</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.777326380924</v>
+        <v>2217.777326380915</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.777326380924</v>
+        <v>2217.777326380915</v>
       </c>
       <c r="U8" t="n">
-        <v>2217.777326380924</v>
+        <v>2217.777326380915</v>
       </c>
       <c r="V8" t="n">
-        <v>2217.777326380924</v>
+        <v>2217.777326380915</v>
       </c>
       <c r="W8" t="n">
-        <v>1865.00867111081</v>
+        <v>2217.777326380915</v>
       </c>
       <c r="X8" t="n">
-        <v>1491.54291284973</v>
+        <v>2217.777326380915</v>
       </c>
       <c r="Y8" t="n">
-        <v>1491.54291284973</v>
+        <v>1827.637994405104</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>721.838361280023</v>
+        <v>721.8383612800144</v>
       </c>
       <c r="C9" t="n">
-        <v>547.385331998896</v>
+        <v>547.3853319988874</v>
       </c>
       <c r="D9" t="n">
-        <v>398.4509223376448</v>
+        <v>398.4509223376361</v>
       </c>
       <c r="E9" t="n">
-        <v>239.2134673321893</v>
+        <v>239.2134673321806</v>
       </c>
       <c r="F9" t="n">
-        <v>92.67890935907425</v>
+        <v>92.67890935906561</v>
       </c>
       <c r="G9" t="n">
-        <v>44.35554652761848</v>
+        <v>44.35554652761831</v>
       </c>
       <c r="H9" t="n">
-        <v>44.35554652761848</v>
+        <v>44.35554652761831</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761848</v>
+        <v>44.35554652761831</v>
       </c>
       <c r="J9" t="n">
-        <v>217.3941849412461</v>
+        <v>92.5640599542408</v>
       </c>
       <c r="K9" t="n">
-        <v>377.9450376513141</v>
+        <v>253.1149126643081</v>
       </c>
       <c r="L9" t="n">
-        <v>640.1480134809915</v>
+        <v>515.3178884939846</v>
       </c>
       <c r="M9" t="n">
-        <v>965.4833871310982</v>
+        <v>1042.567910071621</v>
       </c>
       <c r="N9" t="n">
-        <v>1313.838064971853</v>
+        <v>1591.467798350897</v>
       </c>
       <c r="O9" t="n">
-        <v>1610.294743387006</v>
+        <v>1887.924476766049</v>
       </c>
       <c r="P9" t="n">
-        <v>1913.591994996789</v>
+        <v>2106.524031033378</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380924</v>
+        <v>2202.732847559022</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380924</v>
+        <v>2217.777326380915</v>
       </c>
       <c r="S9" t="n">
-        <v>2217.777326380924</v>
+        <v>2217.777326380915</v>
       </c>
       <c r="T9" t="n">
-        <v>2023.155113972381</v>
+        <v>2023.155113972372</v>
       </c>
       <c r="U9" t="n">
-        <v>1795.054962230522</v>
+        <v>1795.054962230513</v>
       </c>
       <c r="V9" t="n">
-        <v>1559.902853998779</v>
+        <v>1559.902853998771</v>
       </c>
       <c r="W9" t="n">
-        <v>1305.665497270578</v>
+        <v>1305.665497270569</v>
       </c>
       <c r="X9" t="n">
-        <v>1097.813997065045</v>
+        <v>1097.813997065036</v>
       </c>
       <c r="Y9" t="n">
-        <v>890.0536983000911</v>
+        <v>890.0536983000825</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>558.6054799393537</v>
+        <v>558.6054799393498</v>
       </c>
       <c r="C10" t="n">
-        <v>389.6692970114468</v>
+        <v>389.6692970114429</v>
       </c>
       <c r="D10" t="n">
-        <v>239.5526575991111</v>
+        <v>239.5526575991072</v>
       </c>
       <c r="E10" t="n">
-        <v>91.63956401671797</v>
+        <v>91.6395640167141</v>
       </c>
       <c r="F10" t="n">
-        <v>44.35554652761848</v>
+        <v>44.35554652761831</v>
       </c>
       <c r="G10" t="n">
-        <v>44.35554652761848</v>
+        <v>44.35554652761831</v>
       </c>
       <c r="H10" t="n">
-        <v>44.35554652761848</v>
+        <v>44.35554652761831</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761848</v>
+        <v>44.35554652761831</v>
       </c>
       <c r="J10" t="n">
-        <v>60.9525426269207</v>
+        <v>60.95254262692028</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274038</v>
+        <v>218.063342327403</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918449</v>
+        <v>474.6375091918436</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921729</v>
+        <v>755.548116892171</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.21391462932</v>
+        <v>1035.213914629318</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546133</v>
+        <v>1277.51424854613</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659243</v>
+        <v>1461.323360659239</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155971</v>
+        <v>1505.148182155967</v>
       </c>
       <c r="R10" t="n">
-        <v>1505.148182155971</v>
+        <v>1505.148182155967</v>
       </c>
       <c r="S10" t="n">
-        <v>1505.148182155971</v>
+        <v>1505.148182155967</v>
       </c>
       <c r="T10" t="n">
-        <v>1505.148182155971</v>
+        <v>1505.148182155967</v>
       </c>
       <c r="U10" t="n">
-        <v>1505.148182155971</v>
+        <v>1505.148182155967</v>
       </c>
       <c r="V10" t="n">
-        <v>1250.463693950084</v>
+        <v>1250.46369395008</v>
       </c>
       <c r="W10" t="n">
-        <v>961.0465239131236</v>
+        <v>961.0465239131197</v>
       </c>
       <c r="X10" t="n">
-        <v>961.0465239131236</v>
+        <v>961.0465239131197</v>
       </c>
       <c r="Y10" t="n">
-        <v>740.2539447695934</v>
+        <v>740.2539447695896</v>
       </c>
     </row>
     <row r="11">
@@ -5032,58 +5032,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5132,7 +5132,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832228</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>634.9279362553159</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2251.007271617388</v>
       </c>
       <c r="T13" t="n">
-        <v>2267.47159895366</v>
+        <v>2031.40580664033</v>
       </c>
       <c r="U13" t="n">
-        <v>1978.396372297858</v>
+        <v>1742.330579984527</v>
       </c>
       <c r="V13" t="n">
-        <v>1723.711884091971</v>
+        <v>1487.64609177864</v>
       </c>
       <c r="W13" t="n">
-        <v>1434.29471405501</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.305163156993</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5125840134625</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5515,22 +5515,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5545,10 +5545,10 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703109</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>526.5658826424041</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>376.4492432300683</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>228.5361496476752</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>228.5361496476752</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>228.5361496476752</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5746,31 +5746,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5779,22 +5779,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,13 +5825,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
         <v>577.3880777468471</v>
@@ -5840,16 +5840,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5983,58 +5983,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,19 +6697,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6718,7 +6718,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6730,10 +6730,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6919,13 +6919,13 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,28 +6934,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7025,10 +7025,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7125,10 +7125,10 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
         <v>1491.508541327549</v>
@@ -7153,70 +7153,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797747</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2307.590151828076</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,19 +7645,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
   </sheetData>
@@ -8145,16 +8145,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777633</v>
+        <v>46.56605103777609</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>8.985656744431139</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>147.3598584166009</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>203.9541898257883</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>202.5709196348715</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>85.55322963884203</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688285</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>53.40527886852264</v>
       </c>
       <c r="T13" t="n">
-        <v>106.0841272570749</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>35.11263957635595</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>6.922421112517611</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>119.8635921600922</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>46.45968844823054</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>39.70888054695382</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>46.45968844823054</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>79.42624789262538</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>639977.9579446112</v>
+        <v>639977.9579446111</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>618778.7169977756</v>
+        <v>618778.7169977755</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>618778.7169977755</v>
+        <v>618778.7169977756</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>618778.7169977755</v>
+        <v>618778.7169977756</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>618778.7169977756</v>
+        <v>618778.7169977755</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>618778.7169977755</v>
+        <v>618778.7169977756</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642836</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642839</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="G2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="H2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="I2" t="n">
         <v>807146.5996900061</v>
-      </c>
-      <c r="F2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="G2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.599690006</v>
       </c>
       <c r="J2" t="n">
         <v>807146.599690006</v>
@@ -26346,16 +26346,16 @@
         <v>807146.599690006</v>
       </c>
       <c r="M2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="N2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="O2" t="n">
-        <v>807146.5996900066</v>
-      </c>
       <c r="P2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>259123.8056778329</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296929</v>
+        <v>138712.7919296906</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745729</v>
+        <v>589678.7921745749</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.1595915357</v>
+        <v>60247.15959153567</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484356</v>
+        <v>33617.87336484307</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.8510167268</v>
+        <v>154073.8510167273</v>
       </c>
       <c r="N3" t="n">
-        <v>4.505352842521591e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296182</v>
+        <v>170385.5244296188</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26435,10 +26435,10 @@
         <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685499</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
@@ -26447,10 +26447,10 @@
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
+        <v>14216.75207685505</v>
+      </c>
+      <c r="M4" t="n">
         <v>14216.75207685499</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14216.75207685498</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969327</v>
+        <v>86168.04029969309</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-105470.1097313818</v>
+        <v>-105470.1097313819</v>
       </c>
       <c r="C6" t="n">
-        <v>277052.6664917012</v>
+        <v>277052.6664917007</v>
       </c>
       <c r="D6" t="n">
-        <v>425775.413205279</v>
+        <v>425775.4132052809</v>
       </c>
       <c r="E6" t="n">
-        <v>101781.1463603141</v>
+        <v>102093.7876892335</v>
       </c>
       <c r="F6" t="n">
-        <v>691459.938534887</v>
+        <v>691772.5798638086</v>
       </c>
       <c r="G6" t="n">
-        <v>691459.9385348872</v>
+        <v>691772.5798638086</v>
       </c>
       <c r="H6" t="n">
-        <v>691459.938534887</v>
+        <v>691772.5798638085</v>
       </c>
       <c r="I6" t="n">
-        <v>691459.9385348868</v>
+        <v>691772.5798638081</v>
       </c>
       <c r="J6" t="n">
-        <v>642394.9938063424</v>
+        <v>642707.6351352636</v>
       </c>
       <c r="K6" t="n">
-        <v>631212.7789433515</v>
+        <v>631525.4202722728</v>
       </c>
       <c r="L6" t="n">
-        <v>657842.0651700434</v>
+        <v>658154.7064989652</v>
       </c>
       <c r="M6" t="n">
-        <v>537386.0875181602</v>
+        <v>537698.7288470813</v>
       </c>
       <c r="N6" t="n">
-        <v>691459.938534887</v>
+        <v>691772.5798638082</v>
       </c>
       <c r="O6" t="n">
-        <v>691459.9385348875</v>
+        <v>691772.5798638085</v>
       </c>
       <c r="P6" t="n">
-        <v>691459.938534887</v>
+        <v>691772.5798638086</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790471</v>
+        <v>863.7717861790452</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.444331595231</v>
+        <v>554.4443315952288</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26810,13 +26810,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26940,10 +26940,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-5.631691053151988e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.631691053151988e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26965,16 +26965,16 @@
         <v>201.5110155847054</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814371</v>
+        <v>113.7908296814352</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626269</v>
+        <v>504.2037141626286</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>234.0895511156618</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132492</v>
+        <v>132.8291933132471</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044176</v>
+        <v>618.2639565044195</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>234.089551115662</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132492</v>
+        <v>132.8291933132473</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044176</v>
+        <v>618.2639565044195</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156618</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132492</v>
+        <v>132.8291933132471</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044176</v>
+        <v>618.2639565044195</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046875</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059418</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>362.8881840830643</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988688</v>
       </c>
       <c r="U2" t="n">
-        <v>104.2380682743285</v>
+        <v>63.64367339871044</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27460,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>58.19357390960249</v>
+        <v>106.9723856651093</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>33.15679104719192</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>46.96994131400059</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>124.5194677636226</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
         <v>94.24014755885166</v>
@@ -27675,16 +27675,16 @@
         <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>317.2044278825825</v>
       </c>
     </row>
     <row r="6">
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>49.14826369801841</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7303505775365</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833734</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041456</v>
+        <v>108.7585307371183</v>
       </c>
       <c r="T6" t="n">
         <v>193.6625353078282</v>
@@ -27757,7 +27757,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6385546828073</v>
@@ -27830,19 +27830,19 @@
         <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>98.85656395413818</v>
       </c>
       <c r="W7" t="n">
-        <v>271.5581625480824</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>87.87714467023375</v>
+        <v>137.8768555938943</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>303.9125797832801</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787236</v>
+        <v>76.60428439787265</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734613</v>
+        <v>129.8916290734614</v>
       </c>
       <c r="T8" t="n">
         <v>207.895202352076</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>87.64546374074091</v>
+        <v>87.64546374074929</v>
       </c>
       <c r="H9" t="n">
-        <v>94.2918076971921</v>
+        <v>94.29180769719214</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155167</v>
+        <v>25.42862793155182</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088542</v>
+        <v>137.1730436088543</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>98.60987070872275</v>
+        <v>98.60987070872642</v>
       </c>
       <c r="G10" t="n">
         <v>166.4333581046933</v>
@@ -28031,7 +28031,7 @@
         <v>148.3785035421427</v>
       </c>
       <c r="I10" t="n">
-        <v>108.608555768565</v>
+        <v>108.6085557685651</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305864</v>
+        <v>107.2570757305866</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8715076418045</v>
+        <v>196.8715076418046</v>
       </c>
       <c r="T10" t="n">
         <v>221.290298616738</v>
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29046,7 +29046,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.172973401475805e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29997,13 +29997,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-5.631691053151984e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-5.631691053151988e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674559</v>
+        <v>3.472449391674551</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248708</v>
+        <v>35.562222332487</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8716051725335</v>
+        <v>133.8716051725333</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566389</v>
+        <v>294.7198015566382</v>
       </c>
       <c r="K8" t="n">
-        <v>441.708584306223</v>
+        <v>441.708584306222</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766834</v>
+        <v>547.9785573766821</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458758</v>
+        <v>609.7317292458745</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799712</v>
+        <v>619.5978260799698</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415073</v>
+        <v>585.0686574415059</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845415</v>
+        <v>499.3425630845404</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451963</v>
+        <v>374.9854692451954</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997772</v>
+        <v>218.1262490997767</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278408</v>
+        <v>79.12844051278391</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205539</v>
+        <v>15.20064721205535</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339646</v>
+        <v>0.277795951333964</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328517</v>
+        <v>1.857924219328512</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930436</v>
+        <v>17.94363653930432</v>
       </c>
       <c r="I9" t="n">
-        <v>63.9680049198634</v>
+        <v>63.96800491986326</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743666</v>
+        <v>175.5330947743662</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693772</v>
+        <v>300.0140174693765</v>
       </c>
       <c r="L9" t="n">
-        <v>403.405870516922</v>
+        <v>403.4058705169211</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675806</v>
+        <v>470.7556234675796</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436917</v>
+        <v>483.2151240436906</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627808</v>
+        <v>442.0474347627799</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873902</v>
+        <v>354.7820379873894</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.162396839198</v>
+        <v>237.1623968391975</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070811</v>
+        <v>115.3542774070808</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498361</v>
+        <v>34.51012749498353</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363623</v>
+        <v>7.488738410363606</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347709</v>
+        <v>0.1222318565347706</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765495</v>
+        <v>1.557621253765491</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529686</v>
+        <v>13.84866896529683</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869325</v>
+        <v>46.84191915869315</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1238226412205</v>
+        <v>110.1238226412202</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011183</v>
+        <v>180.9672693011179</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552809</v>
+        <v>231.5757998552804</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243493</v>
+        <v>244.1642116243487</v>
       </c>
       <c r="N10" t="n">
-        <v>238.358532405769</v>
+        <v>238.3585324057685</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231447</v>
+        <v>220.1626841231442</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463285</v>
+        <v>188.387210546328</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4295397130361</v>
+        <v>130.4295397130358</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658305</v>
+        <v>70.03631564658289</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516775</v>
+        <v>27.14509039516768</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543475</v>
+        <v>6.655290811543461</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629981</v>
+        <v>0.08496115929629962</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,37 +32551,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202621</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33745,13 +33745,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33976,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34219,13 +34219,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34865,16 +34865,16 @@
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068246</v>
+        <v>28.45844197068223</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>34.55689596375521</v>
+        <v>151.6622745597329</v>
       </c>
       <c r="K6" t="n">
-        <v>387.1148251643754</v>
+        <v>122.6495881517968</v>
       </c>
       <c r="L6" t="n">
-        <v>211.707952780637</v>
+        <v>359.0678111972379</v>
       </c>
       <c r="M6" t="n">
         <v>266.605587369179</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299526</v>
+        <v>113.6738970299519</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612424</v>
+        <v>221.6187332612415</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066962</v>
+        <v>312.2121424066949</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186031</v>
+        <v>379.3854960186018</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833803</v>
+        <v>390.1847624833788</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198205</v>
+        <v>354.9704460198192</v>
       </c>
       <c r="P8" t="n">
-        <v>268.109567329272</v>
+        <v>268.1095673292709</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707468</v>
+        <v>152.6797793707459</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285645074</v>
+        <v>2.540711285644591</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>174.7865034481087</v>
+        <v>48.6954681076995</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1725784950182</v>
+        <v>162.1725784950175</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370478</v>
+        <v>264.8514907370469</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455623</v>
+        <v>532.5757793713495</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603583</v>
+        <v>554.4443315952288</v>
       </c>
       <c r="O9" t="n">
-        <v>299.4511903183364</v>
+        <v>299.4511903183354</v>
       </c>
       <c r="P9" t="n">
-        <v>306.360860211902</v>
+        <v>220.8076305730592</v>
       </c>
       <c r="Q9" t="n">
-        <v>307.2579104890256</v>
+        <v>97.18062275317598</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>15.19644325443771</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.7646425245477</v>
+        <v>16.76464252454744</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752355</v>
+        <v>158.6977774752351</v>
       </c>
       <c r="L10" t="n">
-        <v>259.165825115597</v>
+        <v>259.1658251155966</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861899</v>
+        <v>283.7480885861893</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849975</v>
+        <v>282.4907047849971</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371844</v>
+        <v>244.7478120371839</v>
       </c>
       <c r="P10" t="n">
-        <v>185.665769811222</v>
+        <v>185.6657698112215</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134174</v>
+        <v>44.26749646134142</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>220.9409070342406</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37393,13 +37393,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
